--- a/画面項目定義/hotel_dhite-ru画面項目定義.xlsx
+++ b/画面項目定義/hotel_dhite-ru画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC190E7-F2BA-44B5-8DEA-2FA4A84D9020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E912DDB-4F70-475C-8692-BAE729F3FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{F24F3B7C-E7D4-4570-9D01-B54E772D1BDD}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="13582" windowHeight="12599" xr2:uid="{F24F3B7C-E7D4-4570-9D01-B54E772D1BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>項目名</t>
   </si>
@@ -80,31 +80,6 @@
     <t>「戻る」</t>
   </si>
   <si>
-    <r>
-      <t>前の画面に戻る（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>window.history.back()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>ホテル名</t>
   </si>
   <si>
@@ -163,13 +138,24 @@
   </si>
   <si>
     <t>アラート表示（例: 「予約しました」）</t>
+  </si>
+  <si>
+    <t>表示のみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル検索選択画面に遷移</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +179,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,18 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380A7725-3120-4431-AE83-F277FA9FCC39}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="4" max="4" width="25.0625" customWidth="1"/>
     <col min="5" max="5" width="15.5625" customWidth="1"/>
     <col min="6" max="6" width="37.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="83.25">
+    <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,12 +617,12 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="70.5">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -651,18 +631,18 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="70.5">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -671,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -680,9 +660,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="70.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -691,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -700,9 +680,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="52.9">
+    <row r="7" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -711,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -720,9 +700,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.9">
+    <row r="8" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -731,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -740,9 +720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="88.15">
+    <row r="9" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -751,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -760,9 +740,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="70.5">
+    <row r="10" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -771,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -780,18 +760,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="88.15">
+    <row r="11" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -800,9 +780,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="88.15">
+    <row r="12" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -811,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/hotel_dhite-ru画面項目定義.xlsx
+++ b/画面項目定義/hotel_dhite-ru画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E912DDB-4F70-475C-8692-BAE729F3FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62749C-F8B5-49AD-B95E-CCFB264889F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="13582" windowHeight="12599" xr2:uid="{F24F3B7C-E7D4-4570-9D01-B54E772D1BDD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{F24F3B7C-E7D4-4570-9D01-B54E772D1BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>「予約」</t>
   </si>
   <si>
-    <t>アラート表示（例: 「予約しました」）</t>
-  </si>
-  <si>
     <t>表示のみ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,6 +145,10 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラート表示（例: 「予約しました」）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,7 +551,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -617,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
@@ -637,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
@@ -797,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
